--- a/BaoCao/PhieuThanhToan.xlsx
+++ b/BaoCao/PhieuThanhToan.xlsx
@@ -25,10 +25,10 @@
     <t>PHIẾU THANH TOÁN</t>
   </si>
   <si>
-    <t xml:space="preserve">HD: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày: </t>
+    <t xml:space="preserve">HD:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày:  </t>
   </si>
   <si>
     <t>Tên hàng</t>
@@ -73,10 +73,10 @@
     <t>Tổng cộng:</t>
   </si>
   <si>
-    <t xml:space="preserve">NV Lập: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giờ in: </t>
+    <t xml:space="preserve">NV Lập:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giờ in:  </t>
   </si>
 </sst>
 </file>
@@ -86,10 +86,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,37 +137,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,40 +205,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,13 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -251,7 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,29 +258,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,102 +289,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,84 +470,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,30 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -540,6 +509,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,19 +540,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,161 +587,163 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,7 +772,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1103,7 +1095,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1213,7 +1205,7 @@
       <c r="C13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="13" t="e">
+      <c r="D13" s="12" t="e">
         <f>D10-D11+D12</f>
         <v>#VALUE!</v>
       </c>
